--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_207.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_207.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,654 +488,696 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2229102167182662</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'C', 'G'], ['D', 'G', 'D', 'G'], ['G', 'D', 'G', 'C']]</t>
-        </is>
+          <t>isophonics_290</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_52</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05405844155844156</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'A', 'E'], ['B', 'E', 'B', 'E'], ['E', 'B', 'E', 'A']]</t>
+          <t>[['C', 'F', 'G'], ['C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(44.983424, 55.304693), (26.921541, 37.216349), (11.465419, 21.740249)]</t>
+          <t>[['G', 'C', 'D'], ['G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(46.016712, 65.695623), (0.459543, 6.357029), (43.555396, 58.392947)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:25.807392', '0:00:30.753242'), ('0:00:08.482392', '0:00:11.666439')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:04.151133', '0:00:06.774988'), ('0:01:07.100430', '0:01:14.101247')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.09257602862254025</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E'], ['E', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A'], ['A/3', 'E/5', 'A/3']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(7.284457, 20.438561), (4.103323, 13.890534)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(4.25, 9.179), (14.168, 18.573)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:01:47.900000', '0:01:49.300000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:15.560000', '0:01:35.680000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_171</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.09125874125874125</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E', 'E', 'C#:min']]</t>
-        </is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:maj', 'E:min']]</t>
+          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(24.616991, 31.687468)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(8.28, 15.8)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:04.280000', '0:01:11')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:02.420000', '0:01:04.620000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2128851540616246</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'F:maj', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>isophonics_199</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_274</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08796296296296297</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'A:7/3', 'D']]</t>
+          <t>[['D', 'G', 'A', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(81.94, 97.58)]</t>
+          <t>[['Ab', 'Db', 'Eb', 'Ab', 'Db']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(16.329446, 21.658426)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:01.159256', '0:00:06.708825')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:21.182970', '0:00:25.350952')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj', 'A:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(103.42, 115.04)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(38.9, 47.16)]</t>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:02:00.220000', '0:02:01.920000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_227</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_219</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1676136363636364</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['E', 'A:min', 'A:min/b3']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(12.74, 26.98), (71.7, 78.4)]</t>
+          <t>[['A', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78), (31.34, 33.52)]</t>
+          <t>[('0:00:53.795396', '0:00:59.623605')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:15.058526', '0:01:39.567188')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2EqlS6tkEnglzr7tkKAAYD</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_87</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07051282051282051</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:maj', 'B:min', 'B:7']]</t>
-        </is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:min', 'C', 'F:min', 'F:7']]</t>
+          <t>[['C', 'C/7', 'C/6'], ['F/5', 'C', 'C/7'], ['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(13.48, 22.6)]</t>
+          <t>[['C', 'C/5', 'C'], ['F', 'C', 'C'], ['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(11.89, 19.531)]</t>
+          <t>[('0:01:09.901000', '0:01:17.903000'), ('0:00:08.528000', '0:00:13.333000'), ('0:00:05.121000', '0:00:12.601000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:02:39.135941', '0:02:55.912358'), ('0:00:33.724965', '0:00:49.131405'), ('0:01:10.203514', '0:01:27.246961')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.425</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D/5', 'A', 'D'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04)]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[('0:00:27.963197', '0:00:34.290634'), ('0:00:28.450816', '0:00:36.229501')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:02:20.580000', '0:02:23.320000'), ('0:02:18.020000', '0:02:22.340000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_298</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G', 'D']]</t>
-        </is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3888888888888889</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>[['F', 'C/3', 'F', 'C/3', 'F', 'C/3', 'F']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.344657, 14.158934)]</t>
+          <t>[['C', 'G', 'C', 'G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(57.48, 68.7)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:16.132993', '0:01:19.523105')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:26.391305', '0:00:37.943232')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1169415292353823</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(2.86, 5.3)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(21.14, 27.92)]</t>
+          <t>[('0:00:06.740000', '0:00:21.540000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:00:05.780000', '0:00:21')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1548582995951417</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'C'], ['G', 'E:min', 'C'], ['G', 'C', 'G'], ['C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D'], ['A', 'F#:min', 'D'], ['A', 'D', 'A'], ['D', 'E', 'A']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(136.604739, 139.228594), (52.304693, 57.401473), (4.155032, 7.525011), (17.788231, 22.107142)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(102.174263, 111.798209), (8.713945, 14.066144), (105.425056, 115.003287), (5.130361, 10.478662)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:02.100000', '0:01:11.780000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(18.64, 28.9)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(46.22, 48.94)]</t>
+          <t>[('0:00:48.320000', '0:01:46.760000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:47.800000', '0:01:38.980000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(9.9, 26.98)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(2.86, 7.5)]</t>
+          <t>[('0:01:52.240000', '0:01:57.700000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:56.700000', '0:02:02.320000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2373626373626374</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(67.76, 77.5), (16.04, 22.4)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(65.44, 66.82), (63.6, 66.04)]</t>
+          <t>[('0:00:00.360000', '0:02:07.800000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:01.540000', '0:02:18.860000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2022988505747126</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'F', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'A', 'E']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(81.558072, 104.302018)]</t>
+          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.440395, 8.504874)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:11', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:09.180000', '0:01:01')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_29</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_98</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(14.0, 16.38)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(43.88, 48.02)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
